--- a/KyushuPopulation.xlsx
+++ b/KyushuPopulation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tadaki\OneDrive\ドキュメント\lecture\Python\text\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tadaki\OneDrive\ドキュメント\lecture\Python\ipynb\SagaPopulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_EE7C02EB2BEDE48A0D4C4FB1953DB8F6B1BFAAD4" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{0DF09525-665C-40A1-8155-315D6F29A899}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24432" windowHeight="12504"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24432" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,42 +27,66 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Prefecture</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Fukuoka</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Saga</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Nakasaki</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Kumamoto</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Otita</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Miyazaki</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Kagoshima</t>
+    <t>県</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福岡</t>
+    <rPh sb="0" eb="2">
+      <t>フクオカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐賀</t>
+    <rPh sb="0" eb="2">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長崎</t>
+    <rPh sb="0" eb="2">
+      <t>ナガサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大分</t>
+    <rPh sb="0" eb="2">
+      <t>オオイタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮崎</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤザキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鹿児島</t>
+    <rPh sb="0" eb="3">
+      <t>カゴシマ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,10 +162,10 @@
     <xf numFmtId="38" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="パーセント 2" xfId="2"/>
-    <cellStyle name="桁区切り 2" xfId="3"/>
+    <cellStyle name="パーセント 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="桁区切り 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -417,11 +442,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
